--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_5.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016895.452355825</v>
+        <v>-960786.0960155538</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17424043.67672896</v>
+        <v>16759483.43569379</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9931734.218371853</v>
+        <v>9917365.921563674</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>81.11345856360968</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>248.2566053778752</v>
+        <v>168.369326447592</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>160.9784495326254</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,13 +877,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>228.3698698499521</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>170.1030643409599</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>296.1430764314036</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,10 +1063,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>13.76216761669088</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>93.29463091894637</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>59.25664966154027</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1187,19 +1187,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>55.64506936889297</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>130.9826845827122</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,10 +1345,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>197.0193928759076</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>423.111705219996</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1421,22 +1421,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>176.4906962417473</v>
       </c>
     </row>
     <row r="12">
@@ -1531,7 +1531,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,7 +1543,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>113.72182167445</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>140.7955163720459</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1673,7 +1673,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633418</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>113.7218216744445</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.085953048278</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1831,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -2017,7 +2017,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.2022955251543</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.2022955251537</v>
+        <v>18.05677735226111</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.64119670414914</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>43.4889870101585</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930497</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C34" t="n">
-        <v>154.6003840628598</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.983502531745</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730226</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.7042731591138</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856831</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277817</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I34" t="n">
-        <v>71.5376393943239</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742938096</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S34" t="n">
-        <v>141.4132446762358</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
-        <v>227.1849416185818</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U34" t="n">
-        <v>259.4129604006782</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V34" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W34" t="n">
-        <v>253.0704300308239</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X34" t="n">
-        <v>226.7021267811741</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402853</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930497</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628598</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D37" t="n">
-        <v>147.983502531745</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730226</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591138</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856831</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277855</v>
+        <v>122.2674422277814</v>
       </c>
       <c r="I37" t="n">
-        <v>71.5376393943239</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934327</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762358</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185818</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006782</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W37" t="n">
-        <v>253.0704300308239</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811741</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402853</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413112</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496634</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385524</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545402</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F38" t="n">
-        <v>407.3530449561368</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242212</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724684</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925385</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169443</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267642</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043308</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477349</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245956</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930497</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628598</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D40" t="n">
-        <v>147.983502531745</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730226</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591138</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856831</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277817</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.5376393943239</v>
+        <v>71.53763939432345</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934327</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762358</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185818</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006782</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W40" t="n">
-        <v>253.0704300308271</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811741</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402853</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413112</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496634</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385524</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545402</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F41" t="n">
-        <v>407.3530449561368</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242212</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724684</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925385</v>
+        <v>66.57964473925399</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169443</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174058</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267642</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043295</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X41" t="n">
-        <v>398.7153284477349</v>
+        <v>398.715328447735</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245956</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930497</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628598</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D43" t="n">
-        <v>147.983502531745</v>
+        <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730226</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591138</v>
+        <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856831</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277817</v>
+        <v>122.2674422277812</v>
       </c>
       <c r="I43" t="n">
-        <v>71.5376393943239</v>
+        <v>71.53763939432405</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934327</v>
+        <v>4.967932742934465</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762358</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185818</v>
+        <v>227.1849416185819</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006782</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095264</v>
+        <v>267.8502427095265</v>
       </c>
       <c r="W43" t="n">
-        <v>253.0704300308239</v>
+        <v>253.070430030824</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811741</v>
+        <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402853</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="44">
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>598.0194956439176</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4364,16 +4364,16 @@
         <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1250.914606198081</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>846.059151609114</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="X2" t="n">
-        <v>426.9166881884247</v>
+        <v>1194.389092843565</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.1524403319851</v>
+        <v>1024.319066128825</v>
       </c>
     </row>
     <row r="3">
@@ -4413,19 +4413,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.2929473250434</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="C4" t="n">
-        <v>369.2929473250434</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="D4" t="n">
-        <v>369.2929473250434</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5349435757807</v>
+        <v>210.6507226398521</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4492,13 +4492,13 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>1109.321405990304</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1353.919745606387</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1075.486744859492</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>788.5312367299223</v>
+        <v>885.9154747824084</v>
       </c>
       <c r="W4" t="n">
-        <v>788.5312367299223</v>
+        <v>613.8890703687</v>
       </c>
       <c r="X4" t="n">
-        <v>788.5312367299223</v>
+        <v>383.2124341566272</v>
       </c>
       <c r="Y4" t="n">
-        <v>561.1115660440305</v>
+        <v>383.2124341566272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>951.5866093689378</v>
+        <v>1152.828243069765</v>
       </c>
       <c r="C5" t="n">
-        <v>917.4845405927651</v>
+        <v>714.6857702531884</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>682.816389468037</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>653.0820486667362</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>225.214619075944</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>225.214619075944</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386331</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386331</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6480294167812</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219589</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219589</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.390636219589</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.271640678705</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1293.271640678705</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.014247481514</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.513033440108</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193165</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.015224377002</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2365.947997250041</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2365.947997250041</v>
       </c>
       <c r="V5" t="n">
-        <v>1398.049009442636</v>
+        <v>2003.331047183867</v>
       </c>
       <c r="W5" t="n">
-        <v>1397.233958894073</v>
+        <v>1598.4755925949</v>
       </c>
       <c r="X5" t="n">
-        <v>1382.131899513788</v>
+        <v>1583.373533214615</v>
       </c>
       <c r="Y5" t="n">
-        <v>973.8457758134416</v>
+        <v>1579.127813554673</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5650869551561</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1086257917984</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0183369383516</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.8979222653053</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5140838814669</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.12899414765084</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386331</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.4570151243209</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0153400905332</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="L6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.460325348332</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.633103442672</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.177665891055</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.999022221657</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.662475221625</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.544957283624</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2222030168184</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3547672556984</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8689880349192</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.2867191875922</v>
+        <v>741.0835044133496</v>
       </c>
       <c r="C7" t="n">
-        <v>546.2867191875922</v>
+        <v>568.5217928965745</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4087263891149</v>
+        <v>402.6438000980972</v>
       </c>
       <c r="E7" t="n">
-        <v>210.6507226398521</v>
+        <v>232.8857963488345</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>218.9846169380356</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386331</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386331</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386331</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.5871734550555</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>414.345628026191</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>832.5555097941522</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.039376975065</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1734.29818013271</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2153.967429358491</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.474323328833</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193165</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.249276898537</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.007908196534</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.303983658873</v>
+        <v>2243.128461774989</v>
       </c>
       <c r="U7" t="n">
-        <v>1172.870982911978</v>
+        <v>1964.695461028094</v>
       </c>
       <c r="V7" t="n">
-        <v>885.9154747824084</v>
+        <v>1677.739952898525</v>
       </c>
       <c r="W7" t="n">
-        <v>885.9154747824084</v>
+        <v>1405.713548484816</v>
       </c>
       <c r="X7" t="n">
-        <v>640.5237201158209</v>
+        <v>1160.321793818229</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.2867191875922</v>
+        <v>932.9021231323368</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>971.65580946162</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C8" t="n">
-        <v>533.5133366450434</v>
+        <v>1263.938003889275</v>
       </c>
       <c r="D8" t="n">
-        <v>97.60355181948785</v>
+        <v>1232.068623104124</v>
       </c>
       <c r="E8" t="n">
-        <v>67.86921101818709</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>44.04218546779887</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>44.04218546779887</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>44.04218546779887</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>43.62539609493888</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>478.8800835478567</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1018.744360222725</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1018.744360222725</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1018.744360222725</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
-        <v>1018.744360222725</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1101.541251397206</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1641.405528072075</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2181.269804746944</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2181.269804746944</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2097.617930930781</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1877.550703803819</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1877.550703803819</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1877.550703803819</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1821.34356302716</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1806.241503646875</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y8" t="n">
-        <v>1397.955379946528</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.7971410862317</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.340679922874</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.2503910694272</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.1299763963809</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.7461380125425</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.3610482787264</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.62539609493888</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.68906925539648</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.2473942216088</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>934.1116708964774</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>934.1116708964774</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>934.1116708964774</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.828102804539</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.828102804539</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.828102804539</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.692379479408</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.865157573748</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.409720022131</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.231076352733</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.894529352701</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.7770114147</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.4542571478942</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.5868213867741</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.1010421659948</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>640.4830533847787</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>467.9213418680037</v>
+        <v>760.7341398538248</v>
       </c>
       <c r="D10" t="n">
-        <v>302.0433490695263</v>
+        <v>760.7341398538248</v>
       </c>
       <c r="E10" t="n">
-        <v>132.2853453202636</v>
+        <v>590.9761361045621</v>
       </c>
       <c r="F10" t="n">
-        <v>132.2853453202636</v>
+        <v>414.2690820663183</v>
       </c>
       <c r="G10" t="n">
-        <v>132.2853453202636</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>132.2853453202636</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.62539609493888</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.62539609493888</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>318.3838506660744</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>344.1582163479306</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>803.6420835288436</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1245.900886686488</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1665.57013591227</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2013.077029882611</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2181.269804746944</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2181.269804746944</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2022.02843604494</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1776.148989623396</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1577.139501869954</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1577.139501869954</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1305.113097456245</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1059.721342789658</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>832.3016721037659</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2488.38242319144</v>
+        <v>2524.205911056827</v>
       </c>
       <c r="C11" t="n">
-        <v>2050.239950374864</v>
+        <v>2086.06343824025</v>
       </c>
       <c r="D11" t="n">
-        <v>1614.330165549308</v>
+        <v>1650.153653414695</v>
       </c>
       <c r="E11" t="n">
-        <v>1186.944604721029</v>
+        <v>1216.37890857299</v>
       </c>
       <c r="F11" t="n">
-        <v>759.077175130237</v>
+        <v>788.5114789821977</v>
       </c>
       <c r="G11" t="n">
-        <v>357.6793437535009</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>68.54918919671715</v>
+        <v>97.98349304867783</v>
       </c>
       <c r="I11" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J11" t="n">
-        <v>503.387087276775</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K11" t="n">
-        <v>1337.737379234953</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L11" t="n">
-        <v>2031.811330400867</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M11" t="n">
-        <v>2031.811330400867</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N11" t="n">
-        <v>2031.811330400867</v>
+        <v>4289.755780533854</v>
       </c>
       <c r="O11" t="n">
-        <v>2031.811330400867</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="P11" t="n">
-        <v>2860.121205234263</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="Q11" t="n">
-        <v>3406.619991192858</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="R11" t="n">
-        <v>3406.619991192858</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S11" t="n">
-        <v>3322.968117376695</v>
+        <v>4794.683309974728</v>
       </c>
       <c r="T11" t="n">
-        <v>3322.968117376695</v>
+        <v>4574.616082847767</v>
       </c>
       <c r="U11" t="n">
-        <v>3322.968117376695</v>
+        <v>4315.393780164783</v>
       </c>
       <c r="V11" t="n">
-        <v>3322.968117376695</v>
+        <v>3952.77683009861</v>
       </c>
       <c r="W11" t="n">
-        <v>3322.968117376695</v>
+        <v>3547.921375509643</v>
       </c>
       <c r="X11" t="n">
-        <v>3322.968117376695</v>
+        <v>3128.778912088954</v>
       </c>
       <c r="Y11" t="n">
-        <v>2914.681993676348</v>
+        <v>2950.505481541735</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>574.3041448151499</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C12" t="n">
-        <v>467.8476836517922</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>372.7573947983455</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E12" t="n">
-        <v>278.6369801252992</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F12" t="n">
-        <v>195.2531417414608</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G12" t="n">
-        <v>109.8680520076447</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H12" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19607298431477</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J12" t="n">
-        <v>418.754397950527</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O12" t="n">
-        <v>418.754397950527</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P12" t="n">
-        <v>1073.460444576251</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.199383208326</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1731.372161302666</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1667.916723751049</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1537.738080081651</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1361.401533081619</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1162.284015143618</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>976.9612608768123</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0938251156923</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y12" t="n">
-        <v>695.6080458949131</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1147.190560435738</v>
+        <v>870.8446971795964</v>
       </c>
       <c r="C13" t="n">
-        <v>974.6288489189635</v>
+        <v>698.2829856628214</v>
       </c>
       <c r="D13" t="n">
-        <v>808.7508561204863</v>
+        <v>698.2829856628214</v>
       </c>
       <c r="E13" t="n">
-        <v>638.9928523712235</v>
+        <v>528.5249819135586</v>
       </c>
       <c r="F13" t="n">
-        <v>462.2857983329797</v>
+        <v>351.8179278753148</v>
       </c>
       <c r="G13" t="n">
-        <v>296.6945233588073</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="H13" t="n">
-        <v>156.7923490491818</v>
+        <v>186.2266529011425</v>
       </c>
       <c r="I13" t="n">
-        <v>68.13239982385716</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J13" t="n">
-        <v>154.712084988547</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>429.4705395596826</v>
+        <v>458.9048434116433</v>
       </c>
       <c r="L13" t="n">
-        <v>847.6804213276437</v>
+        <v>877.1147251796043</v>
       </c>
       <c r="M13" t="n">
-        <v>1307.164288508557</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1749.423091666201</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2169.092340891983</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2516.599234862325</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2684.792009726657</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2663.374188432029</v>
+        <v>2692.808492283989</v>
       </c>
       <c r="S13" t="n">
-        <v>2504.132819730026</v>
+        <v>2533.567123581985</v>
       </c>
       <c r="T13" t="n">
-        <v>2258.253373308481</v>
+        <v>2287.687677160441</v>
       </c>
       <c r="U13" t="n">
-        <v>2143.382846364591</v>
+        <v>2009.254676413546</v>
       </c>
       <c r="V13" t="n">
-        <v>1856.427338235022</v>
+        <v>1722.299168283976</v>
       </c>
       <c r="W13" t="n">
-        <v>1584.400933821313</v>
+        <v>1450.272763870268</v>
       </c>
       <c r="X13" t="n">
-        <v>1339.009179154726</v>
+        <v>1204.88100920368</v>
       </c>
       <c r="Y13" t="n">
-        <v>1339.009179154726</v>
+        <v>1062.663315898584</v>
       </c>
     </row>
     <row r="14">
@@ -5285,40 +5285,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
         <v>2955.199618136696</v>
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961042</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2177.51128681152</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1890.555778681944</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1618.529374268236</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1373.137619601648</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009656</v>
@@ -5501,10 +5501,10 @@
         <v>1221.073045167951</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5522,43 +5522,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>920.0973401405613</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>754.2193473420841</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>584.4613435928213</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545776</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804052</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2562.150454693626</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2316.271008272081</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.477670376324</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5808,16 +5808,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987146</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>406.8858352452679</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722216</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883832</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
         <v>143.9964924545671</v>
@@ -5832,19 +5832,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5923,37 +5923,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S22" t="n">
-        <v>2562.150454693626</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2316.271008272081</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6069,19 +6069,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>920.0973401405612</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
         <v>242.1630145804051</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2674.992180466348</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2429.112734044803</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2150.679733297909</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1863.724225168339</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1591.697820754631</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="26">
@@ -6230,10 +6230,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6306,19 +6306,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6470,7 +6470,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1066.521048992527</v>
+        <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886283</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D34" t="n">
-        <v>760.8807595030273</v>
+        <v>760.880759503028</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666408</v>
+        <v>607.5224631666414</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412733</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799772</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H34" t="n">
-        <v>174.521082083228</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708295</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773251</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806462</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
       </c>
       <c r="N34" t="n">
-        <v>1863.918298289924</v>
+        <v>1863.918298289923</v>
       </c>
       <c r="O34" t="n">
-        <v>2299.660900751065</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956767</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q34" t="n">
-        <v>2847.50727605646</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174704</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S34" t="n">
-        <v>2699.647500885577</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T34" t="n">
-        <v>2470.167761876909</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U34" t="n">
-        <v>2208.13446854289</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V34" t="n">
-        <v>1937.578667826197</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W34" t="n">
-        <v>1681.951970825365</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X34" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y34" t="n">
-        <v>1241.939960298638</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6938,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992531</v>
+        <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886322</v>
+        <v>910.3590448886287</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030312</v>
+        <v>760.8807595030275</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666447</v>
+        <v>607.5224631666409</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412772</v>
+        <v>447.2151165412733</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799811</v>
+        <v>298.0235489799771</v>
       </c>
       <c r="H37" t="n">
-        <v>174.521082083228</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708295</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773251</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806462</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M37" t="n">
         <v>1405.586141896919</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289924</v>
+        <v>1863.918298289923</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751066</v>
+        <v>2299.660900751064</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956768</v>
+        <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2847.507276056458</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.64750088558</v>
+        <v>2699.647500885579</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.167761876912</v>
+        <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542894</v>
+        <v>2208.134468542891</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826201</v>
+        <v>1937.578667826198</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825369</v>
+        <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571657</v>
+        <v>1452.959923571654</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298642</v>
+        <v>1241.939960298639</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835851</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197253</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7178,46 +7178,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936665</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080654</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E40" t="n">
         <v>602.828326571679</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463115</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882662</v>
+        <v>169.8269454882658</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758677</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856844</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
         <v>1400.892005301957</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156104</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361806</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461498</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.47362528195</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947932</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231238</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230403</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X40" t="n">
         <v>1448.265786976692</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835851</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197253</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7421,40 +7421,40 @@
         <v>1367.171683086914</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.192791675538</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673519</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936665</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080655</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
         <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463115</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850154</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882662</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758677</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823597</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856807</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301954</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694958</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.9667641561</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361802</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461494</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579742</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290615</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281947</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947928</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231235</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230403</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
         <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703677</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L44" t="n">
-        <v>1367.171683086914</v>
+        <v>1172.626669928677</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675538</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675538</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245844</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.68233307924</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037835</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790891</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I45" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024877</v>
+        <v>448.1887018024878</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581783</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7828,13 +7828,13 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,16 +8140,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>298.8178948332412</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.3343479385007</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.4167745482914</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,13 +8295,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.06447625372947</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,13 +8380,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>545.317451186736</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,19 +8462,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>83.63322340856689</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>545.317451186736</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.317451186736</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.317451186736</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>116.8852847556183</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.317451186736</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,13 +8608,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>26.03471280995569</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.0847991574888</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>594.5246497545841</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9480,22 +9480,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9717,22 +9717,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9878,13 +9878,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9954,22 +9954,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10586,13 +10586,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10601,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,16 +10826,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="O38" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>996.9910187763885</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>996.9910187763885</v>
+        <v>56.39912960647962</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>235.8339360157511</v>
       </c>
     </row>
     <row r="3">
@@ -22708,19 +22708,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>14.56796726996959</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.325292173291757</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>227.7125662215958</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>84.34995760698692</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>161.9268490649812</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>2.446659489829017</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>2.446659489829642</v>
+        <v>139.5921776627222</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.2592358276481</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-2.644980543661887e-12</v>
+        <v>4.209965709378594e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.826698957709595e-12</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-3.268496584496461e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>877371.541417265</v>
+        <v>692678.0987875534</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>877371.541417265</v>
+        <v>879864.8323732284</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>878612.6606457281</v>
+        <v>879865.8418287984</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652072.9053142715</v>
+        <v>839665.4782153008</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>869582.4474029073</v>
+        <v>869582.4474029075</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>869582.4474029075</v>
+        <v>869582.4474029077</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>869582.4474029075</v>
+        <v>869582.4474029073</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>884678.268001624</v>
+        <v>884678.2680016238</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>884678.268001624</v>
+        <v>884678.2680016238</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>884215.9192547809</v>
+        <v>884215.9192547806</v>
       </c>
     </row>
     <row r="15">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>67018.41498630104</v>
+        <v>52811.22709170787</v>
       </c>
       <c r="C2" t="n">
         <v>67018.41498630105</v>
@@ -26320,31 +26320,31 @@
         <v>67018.41498630104</v>
       </c>
       <c r="E2" t="n">
-        <v>49384.27008867096</v>
+        <v>63591.45798326413</v>
       </c>
       <c r="F2" t="n">
         <v>65857.19801716901</v>
       </c>
       <c r="G2" t="n">
+        <v>65857.19801716904</v>
+      </c>
+      <c r="H2" t="n">
+        <v>65857.19801716905</v>
+      </c>
+      <c r="I2" t="n">
         <v>65857.19801716902</v>
       </c>
-      <c r="H2" t="n">
-        <v>65857.19801716904</v>
-      </c>
-      <c r="I2" t="n">
-        <v>65857.19801716904</v>
-      </c>
       <c r="J2" t="n">
-        <v>65857.19801716904</v>
+        <v>65857.19801716902</v>
       </c>
       <c r="K2" t="n">
         <v>65857.19801716902</v>
       </c>
       <c r="L2" t="n">
-        <v>67018.41498630108</v>
+        <v>67018.41498630107</v>
       </c>
       <c r="M2" t="n">
-        <v>67018.41498630108</v>
+        <v>67018.41498630107</v>
       </c>
       <c r="N2" t="n">
         <v>67018.41498630107</v>
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.24144524545</v>
       </c>
       <c r="D3" t="n">
-        <v>37592.93764066577</v>
+        <v>30.57595066286987</v>
       </c>
       <c r="E3" t="n">
-        <v>91465.65199216205</v>
+        <v>164835.5352679185</v>
       </c>
       <c r="F3" t="n">
-        <v>122233.5690936862</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.54417371043</v>
       </c>
       <c r="L3" t="n">
-        <v>43618.04443367946</v>
+        <v>13013.48053938542</v>
       </c>
       <c r="M3" t="n">
-        <v>76340.54196576691</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>90115.69674436451</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>110428.2791719539</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122152.3711358296</v>
       </c>
       <c r="D4" t="n">
-        <v>148844.1049828259</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
-        <v>10682.03781124196</v>
+        <v>13755.1158988389</v>
       </c>
       <c r="F4" t="n">
         <v>14245.20557049264</v>
@@ -26445,19 +26445,19 @@
         <v>14245.20557049264</v>
       </c>
       <c r="L4" t="n">
-        <v>19587.56338712595</v>
+        <v>19587.56338712591</v>
       </c>
       <c r="M4" t="n">
-        <v>19587.56338712595</v>
+        <v>19587.56338712591</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.1522206693</v>
+        <v>29443.15222066924</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066931</v>
+        <v>29443.15222066924</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066923</v>
+        <v>29443.15222066924</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253611</v>
       </c>
       <c r="D5" t="n">
-        <v>66782.90103215355</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>51780.62386613143</v>
+        <v>74150.69479362154</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579249</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26497,10 +26497,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>79083.15853826069</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826069</v>
+        <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608971</v>
@@ -26509,7 +26509,7 @@
         <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.6147260897</v>
+        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-309897.9136757422</v>
+        <v>-259517.2846350702</v>
       </c>
       <c r="C6" t="n">
-        <v>-167706.6130160322</v>
+        <v>-207885.7374873101</v>
       </c>
       <c r="D6" t="n">
-        <v>-186201.5286693441</v>
+        <v>-129355.5387512548</v>
       </c>
       <c r="E6" t="n">
-        <v>-104544.0435808645</v>
+        <v>-189218.4271171755</v>
       </c>
       <c r="F6" t="n">
-        <v>-148339.8152528023</v>
+        <v>-42941.87277359903</v>
       </c>
       <c r="G6" t="n">
-        <v>-26106.24615911611</v>
+        <v>-26129.47049849874</v>
       </c>
       <c r="H6" t="n">
-        <v>-26106.2461591161</v>
+        <v>-26129.47049849875</v>
       </c>
       <c r="I6" t="n">
-        <v>-26106.24615911624</v>
+        <v>-26129.47049849877</v>
       </c>
       <c r="J6" t="n">
-        <v>-137120.7115041063</v>
+        <v>-137143.935843489</v>
       </c>
       <c r="K6" t="n">
-        <v>-26106.24615911614</v>
+        <v>-88701.0146722092</v>
       </c>
       <c r="L6" t="n">
-        <v>-75270.35137276501</v>
+        <v>-44665.78747847093</v>
       </c>
       <c r="M6" t="n">
-        <v>-107992.8489048525</v>
+        <v>-169230.0076769374</v>
       </c>
       <c r="N6" t="n">
-        <v>-128056.0487048225</v>
+        <v>-37940.35196045788</v>
       </c>
       <c r="O6" t="n">
-        <v>-37940.35196045795</v>
+        <v>-37940.35196045788</v>
       </c>
       <c r="P6" t="n">
-        <v>-37940.35196045773</v>
+        <v>-37940.35196045787</v>
       </c>
     </row>
   </sheetData>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P2" t="n">
         <v>16.23571033874737</v>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482913</v>
       </c>
       <c r="D4" t="n">
-        <v>545.317451186736</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>851.6549977982145</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.120917028187</v>
       </c>
       <c r="D4" t="n">
-        <v>121.0215936666316</v>
+        <v>0.09843205956562429</v>
       </c>
       <c r="E4" t="n">
-        <v>306.3375466114786</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="F4" t="n">
-        <v>426.6055055865304</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.120917028187</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666316</v>
+        <v>0.09843205956562429</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114786</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>367.9287981495079</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.120917028187</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0215936666316</v>
+        <v>0.09843205956562429</v>
       </c>
       <c r="M4" t="n">
-        <v>306.3375466114786</v>
+        <v>552.0685893398659</v>
       </c>
       <c r="N4" t="n">
-        <v>426.6055055865304</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>352.6475895248012</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>155.9466570854679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>82.44220242470391</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>400</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>116.135788670256</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>62.84770413410814</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>161.1778158811705</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>131.8508430600864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>345.161830674184</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>32.95267764171837</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>78.6292778635181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.864569773379241e-12</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-3.916515846374476e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>3.582082778545252e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874617</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874384</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874751</v>
+        <v>16.23571033874737</v>
       </c>
     </row>
     <row r="44">
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34860,16 +34860,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>298.8178948332412</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.4167745482912</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>145.3343479385007</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.4167745482914</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,13 +35015,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.06447625372947</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>545.317451186736</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,19 +35182,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>83.63322340856689</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>545.317451186736</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>545.317451186736</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>545.317451186736</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>116.8852847556183</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>545.317451186736</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>26.03471280995569</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
         <v>464.1251183645587</v>
@@ -35346,7 +35346,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.0847991574888</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>594.5246497545841</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512938</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352437</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36291,7 +36291,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512979</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36437,22 +36437,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36598,13 +36598,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36674,22 +36674,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36838,10 +36838,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.6899377778282</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K34" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033062</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
         <v>440.1440428900416</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37321,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778282</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L37" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033062</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209006</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,16 +37546,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="O38" t="n">
-        <v>901.1523322283551</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778282</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K40" t="n">
-        <v>293.769502834844</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L40" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033062</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>996.9910187763885</v>
+        <v>996.9910187763894</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.6899377778282</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348404</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
-        <v>438.669934346789</v>
+        <v>438.6699343467889</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033062</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>996.9910187763885</v>
+        <v>56.39912960647962</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
